--- a/tableau de suivi.xlsx
+++ b/tableau de suivi.xlsx
@@ -1,40 +1,628 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samibahij/Documents/Ecole/MIAGE/Master/Mémoire/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7735C5C-E631-6A4B-8E9A-48B113DEB686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" activeTab="2" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphes Erdős-Rényi" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphes Barabási-Albert" sheetId="2" r:id="rId2"/>
+    <sheet name="Benchmarks" sheetId="3" r:id="rId3"/>
+    <sheet name="Articles" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+  <si>
+    <t>Expérience</t>
+  </si>
+  <si>
+    <t>MDG_Temps_s</t>
+  </si>
+  <si>
+    <t>MDG_Taille</t>
+  </si>
+  <si>
+    <t>GIC_Temps_s</t>
+  </si>
+  <si>
+    <t>GIC_Taille</t>
+  </si>
+  <si>
+    <t>0.23635506629943848</t>
+  </si>
+  <si>
+    <t>0.00043392181396484375</t>
+  </si>
+  <si>
+    <t>0.2554340362548828</t>
+  </si>
+  <si>
+    <t>0.00045108795166015625</t>
+  </si>
+  <si>
+    <t>0.2384631633758545</t>
+  </si>
+  <si>
+    <t>0.0004849433898925781</t>
+  </si>
+  <si>
+    <t>0.23436403274536133</t>
+  </si>
+  <si>
+    <t>0.00045990943908691406</t>
+  </si>
+  <si>
+    <t>0.23380517959594727</t>
+  </si>
+  <si>
+    <t>0.00044608116149902344</t>
+  </si>
+  <si>
+    <t>0.23566699028015137</t>
+  </si>
+  <si>
+    <t>0.0004379749298095703</t>
+  </si>
+  <si>
+    <t>0.23242592811584473</t>
+  </si>
+  <si>
+    <t>0.0004448890686035156</t>
+  </si>
+  <si>
+    <t>0.23329687118530273</t>
+  </si>
+  <si>
+    <t>0.00043129920959472656</t>
+  </si>
+  <si>
+    <t>0.23195219039916992</t>
+  </si>
+  <si>
+    <t>0.00044727325439453125</t>
+  </si>
+  <si>
+    <t>0.2334880828857422</t>
+  </si>
+  <si>
+    <t>0.00046372413635253906</t>
+  </si>
+  <si>
+    <t>0.23282384872436523</t>
+  </si>
+  <si>
+    <t>0.0004858970642089844</t>
+  </si>
+  <si>
+    <t>0.23371076583862305</t>
+  </si>
+  <si>
+    <t>0.00045013427734375</t>
+  </si>
+  <si>
+    <t>0.27987003326416016</t>
+  </si>
+  <si>
+    <t>0.0004410743713378906</t>
+  </si>
+  <si>
+    <t>0.23445487022399902</t>
+  </si>
+  <si>
+    <t>0.00045680999755859375</t>
+  </si>
+  <si>
+    <t>0.31665682792663574</t>
+  </si>
+  <si>
+    <t>0.0004620552062988281</t>
+  </si>
+  <si>
+    <t>0.23626708984375</t>
+  </si>
+  <si>
+    <t>0.0004558563232421875</t>
+  </si>
+  <si>
+    <t>0.23508715629577637</t>
+  </si>
+  <si>
+    <t>0.0004715919494628906</t>
+  </si>
+  <si>
+    <t>0.2352151870727539</t>
+  </si>
+  <si>
+    <t>0.0004489421844482422</t>
+  </si>
+  <si>
+    <t>0.2342510223388672</t>
+  </si>
+  <si>
+    <t>0.0004439353942871094</t>
+  </si>
+  <si>
+    <t>0.2373340129852295</t>
+  </si>
+  <si>
+    <t>0.0004432201385498047</t>
+  </si>
+  <si>
+    <t>0.23677706718444824</t>
+  </si>
+  <si>
+    <t>0.23521184921264648</t>
+  </si>
+  <si>
+    <t>0.0004930496215820312</t>
+  </si>
+  <si>
+    <t>0.23561906814575195</t>
+  </si>
+  <si>
+    <t>0.000453948974609375</t>
+  </si>
+  <si>
+    <t>0.23570680618286133</t>
+  </si>
+  <si>
+    <t>0.0004570484161376953</t>
+  </si>
+  <si>
+    <t>0.25728893280029297</t>
+  </si>
+  <si>
+    <t>0.2362051010131836</t>
+  </si>
+  <si>
+    <t>0.00043702125549316406</t>
+  </si>
+  <si>
+    <t>0.23938202857971191</t>
+  </si>
+  <si>
+    <t>0.0004973411560058594</t>
+  </si>
+  <si>
+    <t>0.24022507667541504</t>
+  </si>
+  <si>
+    <t>0.23669981956481934</t>
+  </si>
+  <si>
+    <t>0.000530242919921875</t>
+  </si>
+  <si>
+    <t>0.2438793182373047</t>
+  </si>
+  <si>
+    <t>0.00045299530029296875</t>
+  </si>
+  <si>
+    <t>0.2341909408569336</t>
+  </si>
+  <si>
+    <t>0.0004630088806152344</t>
+  </si>
+  <si>
+    <t>0.237260103225708</t>
+  </si>
+  <si>
+    <t>0.2358241081237793</t>
+  </si>
+  <si>
+    <t>0.000446319580078125</t>
+  </si>
+  <si>
+    <t>0.23814916610717773</t>
+  </si>
+  <si>
+    <t>0.00046062469482421875</t>
+  </si>
+  <si>
+    <t>0.2357008457183838</t>
+  </si>
+  <si>
+    <t>0.0004382133483886719</t>
+  </si>
+  <si>
+    <t>0.23460793495178223</t>
+  </si>
+  <si>
+    <t>0.000469207763671875</t>
+  </si>
+  <si>
+    <t>0.2363579273223877</t>
+  </si>
+  <si>
+    <t>0.0004589557647705078</t>
+  </si>
+  <si>
+    <t>0.2890596389770508</t>
+  </si>
+  <si>
+    <t>0.00047206878662109375</t>
+  </si>
+  <si>
+    <t>0.23917388916015625</t>
+  </si>
+  <si>
+    <t>0.00041294097900390625</t>
+  </si>
+  <si>
+    <t>0.2603929042816162</t>
+  </si>
+  <si>
+    <t>0.0004520416259765625</t>
+  </si>
+  <si>
+    <t>0.2402951717376709</t>
+  </si>
+  <si>
+    <t>0.00043320655822753906</t>
+  </si>
+  <si>
+    <t>0.23581886291503906</t>
+  </si>
+  <si>
+    <t>0.23663997650146484</t>
+  </si>
+  <si>
+    <t>0.0004699230194091797</t>
+  </si>
+  <si>
+    <t>0.2344067096710205</t>
+  </si>
+  <si>
+    <t>0.0004799365997314453</t>
+  </si>
+  <si>
+    <t>0.23704981803894043</t>
+  </si>
+  <si>
+    <t>0.00047898292541503906</t>
+  </si>
+  <si>
+    <t>0.2386000156402588</t>
+  </si>
+  <si>
+    <t>0.2377030849456787</t>
+  </si>
+  <si>
+    <t>0.0004851818084716797</t>
+  </si>
+  <si>
+    <t>0.2359931468963623</t>
+  </si>
+  <si>
+    <t>0.23609018325805664</t>
+  </si>
+  <si>
+    <t>0.2358558177947998</t>
+  </si>
+  <si>
+    <t>Expériences réalisés sur des graphes de Erdős-Rényi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">num_experiments </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">50  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF546E7A"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t># Nombre de répétitions</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">graph_size </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1000  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF546E7A"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t># Nombre de nœuds dans le graphe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">edge_probability </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF89DDFF"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFF78C6C"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">0.04  </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF546E7A"/>
+        <rFont val="Menlo"/>
+        <family val="3"/>
+      </rPr>
+      <t># Probabilité d'ajouter une arête entre deux nœuds</t>
+    </r>
+  </si>
+  <si>
+    <t>Sous contraintes :</t>
+  </si>
+  <si>
+    <t>Mesures des performances pour l'algorithme MDG et GIC</t>
+  </si>
+  <si>
+    <t>Expériences réalisés sur des graphes de Barabási-Albert</t>
+  </si>
+  <si>
+    <t>0 &lt; p &lt; 1 une constante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nα sommets (avec α &gt; 0 une constante) </t>
+  </si>
+  <si>
+    <t>r &gt; 0 une constante</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Colonne5</t>
+  </si>
+  <si>
+    <t>http://vlsicad.eecs.umich.edu/BK/Slots/cache/www.nlsde.buaa.edu.cn/~kexu/benchmarks/graph-benchmarks.htm</t>
+  </si>
+  <si>
+    <t>Benchmarks innaccessibles</t>
+  </si>
+  <si>
+    <t>https://lcs.ios.ac.cn/~caisw/graphs.html</t>
+  </si>
+  <si>
+    <t>https://lcs.ios.ac.cn/~caisw/VC.html</t>
+  </si>
+  <si>
+    <t>DIMACS graphs for MaxClique, DIMACS complementary graphs</t>
+  </si>
+  <si>
+    <t>Vcverifier, Isverifier</t>
+  </si>
+  <si>
+    <t>http://vlsicad.eecs.umich.edu/BK/Slots/cache/www.nlsde.buaa.edu.cn/~kexu/benchmarks/</t>
+  </si>
+  <si>
+    <t>http://vlsicad.eecs.umich.edu/BK/Slots/cache/www.nlsde.buaa.edu.cn/~kexu/</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3398682.3399168</t>
+  </si>
+  <si>
+    <t>Pas pertinent</t>
+  </si>
+  <si>
+    <t>https://snap.stanford.edu/data/index.html</t>
+  </si>
+  <si>
+    <t>Pas pertinent, il ne contient pas le 
+nombre de résultat à comparer</t>
+  </si>
+  <si>
+    <t>https://perso.liris.cnrs.fr/christine.solnon/SIP.html</t>
+  </si>
+  <si>
+    <t>Pas de solution connue</t>
+  </si>
+  <si>
+    <t>https://networkrepository.com/frb30_15_1.php</t>
+  </si>
+  <si>
+    <t>https://networkrepository.com/frb30-15-1.php</t>
+  </si>
+  <si>
+    <t>https://iridia.ulb.ac.be/~fmascia/maximum_clique/BHOSLIB-benchmark</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1572528608000868</t>
+  </si>
+  <si>
+    <t>https://graphdatasets.com/frb53-24-5.php</t>
+  </si>
+  <si>
+    <t>Benchmarks téléchargé</t>
+  </si>
+  <si>
+    <t>Pas besoin, déjà assez de benchmarks</t>
+  </si>
+  <si>
+    <t>Liste des benchmarks BHOSLIB</t>
+  </si>
+  <si>
+    <t>En complément pour les solutions vertex cover</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC3CEE3"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFA000"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF89DDFF"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFF78C6C"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF546E7A"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.749992370372631"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,16 +634,72 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFA000"/>
+        <name val="Menlo"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFA000"/>
+        <name val="Menlo"/>
+        <family val="3"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -68,8 +712,36 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}" name="Tableau1" displayName="Tableau1" ref="A7:E57" totalsRowShown="0">
+  <autoFilter ref="A7:E57" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{DF0CFD30-7484-F646-AC17-E0AA07BB84BE}" name="Expérience" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{CC9D832E-C2F0-8948-A93E-280711987A5A}" name="MDG_Temps_s"/>
+    <tableColumn id="3" xr3:uid="{EFF8390F-1897-C743-87DB-6345C6E337AF}" name="MDG_Taille"/>
+    <tableColumn id="4" xr3:uid="{5975C812-9CC6-F045-9AE5-60DBCE9602D5}" name="GIC_Temps_s"/>
+    <tableColumn id="5" xr3:uid="{F771D9C1-DBCB-4E46-95F5-1F51F07A4062}" name="GIC_Taille"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C5E69C4-58DE-CA4D-BA72-B905B218F918}" name="Tableau13" displayName="Tableau13" ref="A7:E57" totalsRowShown="0">
+  <autoFilter ref="A7:E57" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{68A7303E-92C1-754A-BE9F-6935441E1BAE}" name="Colonne1" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EEC08CE0-DFF3-7946-9DE8-638246FA8394}" name="Colonne2"/>
+    <tableColumn id="3" xr3:uid="{53D7BBAC-4F22-0D4C-834D-07B5E75E1093}" name="Colonne3"/>
+    <tableColumn id="4" xr3:uid="{07E29CF6-33F6-4147-BC2E-D4361FFDDA0A}" name="Colonne4"/>
+    <tableColumn id="5" xr3:uid="{A1CE1277-D25A-CA4C-8ED5-A1C5F40362CD}" name="Colonne5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -79,42 +751,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +816,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +868,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -240,13 +946,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -255,6 +954,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -319,24 +1025,1343 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E822DE-5535-2648-9265-EB16CE7A0024}">
+  <dimension ref="A2:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>896</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>896</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>898</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>898</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>897</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>895</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>893</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>891</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>899</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>891</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>894</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>896</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>891</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>893</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>893</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>892</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>895</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>892</v>
+      </c>
+      <c r="D26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>897</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>895</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>894</v>
+      </c>
+      <c r="D29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>900</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>891</v>
+      </c>
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32">
+        <v>892</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33">
+        <v>895</v>
+      </c>
+      <c r="D33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34">
+        <v>891</v>
+      </c>
+      <c r="D34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>899</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36">
+        <v>890</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37">
+        <v>895</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>31</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38">
+        <v>898</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E38">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39">
+        <v>900</v>
+      </c>
+      <c r="D39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40">
+        <v>895</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>34</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>899</v>
+      </c>
+      <c r="D41" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42">
+        <v>897</v>
+      </c>
+      <c r="D42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E42">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43">
+        <v>897</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>895</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <v>896</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46">
+        <v>888</v>
+      </c>
+      <c r="D46" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47">
+        <v>895</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48">
+        <v>892</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49">
+        <v>893</v>
+      </c>
+      <c r="D49" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50">
+        <v>892</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51">
+        <v>895</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>45</v>
+      </c>
+      <c r="B52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C52">
+        <v>890</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <v>893</v>
+      </c>
+      <c r="D53" t="s">
+        <v>70</v>
+      </c>
+      <c r="E53">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>47</v>
+      </c>
+      <c r="B54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54">
+        <v>891</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55">
+        <v>891</v>
+      </c>
+      <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>49</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56">
+        <v>892</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>95</v>
+      </c>
+      <c r="C57">
+        <v>897</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57">
+        <v>910</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCC006-319A-A248-B5F1-9957D26E0DA8}">
+  <dimension ref="A2:G57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD885E0-0782-644D-B5BF-19AFE64F3FEB}">
+  <dimension ref="A3:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{9014A41C-5483-124C-AC21-D04FD1D0D5B7}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B2B94F42-9FFD-3441-BBE5-C1110D92D395}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{ACAC9FDF-CD39-834C-81FD-4411452B12CA}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{8A89CCD7-B834-CC43-A1B2-3F49A4E8B811}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB0364-37BC-424B-B8F3-4BE1CA99B045}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{1C15A68C-B722-5643-A353-345F8AB3AB42}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tableau de suivi.xlsx
+++ b/tableau de suivi.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samibahij/Documents/Ecole/MIAGE/Master/Mémoire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7735C5C-E631-6A4B-8E9A-48B113DEB686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B414F-807B-164A-9C9E-51A757D4A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16720" activeTab="2" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphes Erdős-Rényi" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphes Barabási-Albert" sheetId="2" r:id="rId2"/>
-    <sheet name="Benchmarks" sheetId="3" r:id="rId3"/>
-    <sheet name="Articles" sheetId="4" r:id="rId4"/>
+    <sheet name="Benchmarks" sheetId="3" r:id="rId2"/>
+    <sheet name="Articles" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
   <si>
     <t>Expérience</t>
   </si>
@@ -437,33 +436,6 @@
     <t>Mesures des performances pour l'algorithme MDG et GIC</t>
   </si>
   <si>
-    <t>Expériences réalisés sur des graphes de Barabási-Albert</t>
-  </si>
-  <si>
-    <t>0 &lt; p &lt; 1 une constante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nα sommets (avec α &gt; 0 une constante) </t>
-  </si>
-  <si>
-    <t>r &gt; 0 une constante</t>
-  </si>
-  <si>
-    <t>Colonne1</t>
-  </si>
-  <si>
-    <t>Colonne2</t>
-  </si>
-  <si>
-    <t>Colonne3</t>
-  </si>
-  <si>
-    <t>Colonne4</t>
-  </si>
-  <si>
-    <t>Colonne5</t>
-  </si>
-  <si>
     <t>http://vlsicad.eecs.umich.edu/BK/Slots/cache/www.nlsde.buaa.edu.cn/~kexu/benchmarks/graph-benchmarks.htm</t>
   </si>
   <si>
@@ -532,6 +504,151 @@
   </si>
   <si>
     <t>En complément pour les solutions vertex cover</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>Idées principales</t>
+  </si>
+  <si>
+    <t>Pertinence</t>
+  </si>
+  <si>
+    <t>Très pertinent pour comprendre et intégrer des GNNs dans les algorithmes heuristiques pour Vertex Cover.</t>
+  </si>
+  <si>
+    <t>Abu-Khzam et al. (Learning from obstructions)</t>
+  </si>
+  <si>
+    <t>Intéressant pour accélérer l’entraînement des modèles ML en utilisant des exemples pertinents.</t>
+  </si>
+  <si>
+    <t>Dai et al. (Learning Steady-States of Iterative Algorithms over Graphs)</t>
+  </si>
+  <si>
+    <t>Approche conceptuellement pertinente si des contraintes spécifiques doivent être intégrées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est consérvé ? </t>
+  </si>
+  <si>
+    <t>Fournit des notions théoriques solides pour guider les choix locaux, 
+mais peu pertinent pour les heuristiques IA.</t>
+  </si>
+  <si>
+    <t>Très pertinent pour intégrer l'apprentissage machine dans les
+ heuristiques de Vertex Cover.</t>
+  </si>
+  <si>
+    <t>Indirectement pertinent pour explorer des stratégies d’apprentissage 
+basées sur l'interprétation ou l'amélioration des résultats.</t>
+  </si>
+  <si>
+    <t>Définition et caractérisation des ensembles minimum dominants. 
+Propriétés locales pour partitionner les sommets.</t>
+  </si>
+  <si>
+    <t>Étude des capacités des GNNs pour apprendre des algorithmes 
+d'approximation sur Vertex Cover. Propose de nouveaux GNNs (CPNGNNs).</t>
+  </si>
+  <si>
+    <t>Propose un cadre pour la prise de décision sous incertitude
+ basé sur des LLMs et maximise l'utilité espérée.</t>
+  </si>
+  <si>
+    <t>Utilisation hybride des GNNs, règles de réduction et recherche locale 
+pour Minimum Weight Vertex Cover. Solutions proches de l'optimal.</t>
+  </si>
+  <si>
+    <t>Utilisation des obstructions dans les graphes pour améliorer
+ l'entraînement des modèles d'apprentissage pour Vertex Cover.</t>
+  </si>
+  <si>
+    <t>Propose un cadre pour apprendre des algorithmes itératifs avec des 
+contraintes de steady-state sur des graphes très larges.</t>
+  </si>
+  <si>
+    <t>Sato et al. (Approximation Ratios of Graph Neural Networks for
+ Combinatorial Problems)</t>
+  </si>
+  <si>
+    <t>Bouquet et al. (On the vertices belonging to all, some, 
+none minimum dominating set)</t>
+  </si>
+  <si>
+    <t>Liu et al. (DeLLMa: Decision Making Under Uncertainty 
+with Large Language Models)</t>
+  </si>
+  <si>
+    <t>Langedal et al. (Efficient Minimum Weight Vertex Cover Heuristics
+ Using Graph Neural Networks)</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Oui</t>
+  </si>
+  <si>
+    <t>Articles de départ</t>
+  </si>
+  <si>
+    <t>Snowballing</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Learning steady-states of iterative algorithms over graphs")</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Learning from obstructions: An effective deep learning approach for minimum vertex cover")</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Efficient Minimum Weight Vertex Cover Heuristics Using Graph Neural Networks")</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("On the vertices belonging to all, some, none minimum dominating set")</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Approximation ratios of graph neural networks for combinatorial problems")</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("A Framework for Decision Making Under Uncertainty with Large Language Models")</t>
+  </si>
+  <si>
+    <t>Requête</t>
+  </si>
+  <si>
+    <t>REFTITLE("Learning steady-states of iterative algorithms over graphs")
+AND REFTITLE("Approximation ratios of graph neural networks for combinatorial problems")
+AND REFTITLE("Learning from obstructions: An effective deep learning approach for minimum vertex cover")
+AND REFTITLE("Efficient Minimum Weight Vertex Cover Heuristics Using Graph Neural Networks")</t>
+  </si>
+  <si>
+    <t>https://github.com/dynaroars/npbench/tree/master/instances/vertex_cover</t>
+  </si>
+  <si>
+    <t>Type de graphes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Erdős-Rényi</t>
+  </si>
+  <si>
+    <t>Bhoslib</t>
+  </si>
+  <si>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>Barabási-Albert</t>
+  </si>
+  <si>
+    <t>Frankl–Rödl</t>
   </si>
 </sst>
 </file>
@@ -591,15 +708,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -625,7 +744,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -633,39 +752,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <font>
-        <b val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -674,12 +853,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FFFFA000"/>
-        <name val="Menlo"/>
-        <family val="3"/>
-        <scheme val="none"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -716,7 +906,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}" name="Tableau1" displayName="Tableau1" ref="A7:E57" totalsRowShown="0">
   <autoFilter ref="A7:E57" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DF0CFD30-7484-F646-AC17-E0AA07BB84BE}" name="Expérience" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{DF0CFD30-7484-F646-AC17-E0AA07BB84BE}" name="Expérience" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{CC9D832E-C2F0-8948-A93E-280711987A5A}" name="MDG_Temps_s"/>
     <tableColumn id="3" xr3:uid="{EFF8390F-1897-C743-87DB-6345C6E337AF}" name="MDG_Taille"/>
     <tableColumn id="4" xr3:uid="{5975C812-9CC6-F045-9AE5-60DBCE9602D5}" name="GIC_Temps_s"/>
@@ -727,16 +917,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2C5E69C4-58DE-CA4D-BA72-B905B218F918}" name="Tableau13" displayName="Tableau13" ref="A7:E57" totalsRowShown="0">
-  <autoFilter ref="A7:E57" xr:uid="{2278E53C-47E6-164E-B83C-9BD8B7A47942}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{17351252-465E-4D43-8E6B-84149FA01DFE}" name="Tableau4" displayName="Tableau4" ref="A2:E8" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A2:E8" xr:uid="{17351252-465E-4D43-8E6B-84149FA01DFE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{68A7303E-92C1-754A-BE9F-6935441E1BAE}" name="Colonne1" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{EEC08CE0-DFF3-7946-9DE8-638246FA8394}" name="Colonne2"/>
-    <tableColumn id="3" xr3:uid="{53D7BBAC-4F22-0D4C-834D-07B5E75E1093}" name="Colonne3"/>
-    <tableColumn id="4" xr3:uid="{07E29CF6-33F6-4147-BC2E-D4361FFDDA0A}" name="Colonne4"/>
-    <tableColumn id="5" xr3:uid="{A1CE1277-D25A-CA4C-8ED5-A1C5F40362CD}" name="Colonne5"/>
+    <tableColumn id="1" xr3:uid="{F51EDA97-399F-124F-B2D6-AD1FD2F48CDF}" name="Article"/>
+    <tableColumn id="2" xr3:uid="{41ADF98E-8FE5-F445-9E0C-3400236D526B}" name="Idées principales"/>
+    <tableColumn id="3" xr3:uid="{E4DDA860-AE5B-5649-8690-DE3675CAA87E}" name="Pertinence"/>
+    <tableColumn id="4" xr3:uid="{420E3DD3-21D3-244B-8726-432746DB6617}" name="Est consérvé ? "/>
+    <tableColumn id="5" xr3:uid="{DF949886-6BCE-674A-A05D-7E162515F4B2}" name="Query"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1060,7 +1250,7 @@
   <dimension ref="A2:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,13 +1264,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="G2" t="s">
         <v>100</v>
       </c>
@@ -1101,13 +1291,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -1989,349 +2179,146 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BBCC006-319A-A248-B5F1-9957D26E0DA8}">
-  <dimension ref="A2:G57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="78.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G3" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G4" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A6:E6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD885E0-0782-644D-B5BF-19AFE64F3FEB}">
-  <dimension ref="A3:B16"/>
+  <dimension ref="A2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.5" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>115</v>
       </c>
-      <c r="B4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>124</v>
       </c>
-      <c r="B10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>111</v>
+      <c r="B16" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2340,28 +2327,200 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B2B94F42-9FFD-3441-BBE5-C1110D92D395}"/>
     <hyperlink ref="B11" r:id="rId3" xr:uid="{ACAC9FDF-CD39-834C-81FD-4411452B12CA}"/>
     <hyperlink ref="B16" r:id="rId4" xr:uid="{8A89CCD7-B834-CC43-A1B2-3F49A4E8B811}"/>
+    <hyperlink ref="B17" r:id="rId5" xr:uid="{7169DB99-7A06-2D41-BDB4-4916A5835682}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB0364-37BC-424B-B8F3-4BE1CA99B045}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="57.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="87.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="N1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" t="s">
         <v>128</v>
       </c>
+      <c r="D6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D11 D13:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Oui"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{1C15A68C-B722-5643-A353-345F8AB3AB42}"/>
+    <hyperlink ref="N1" r:id="rId1" xr:uid="{1C15A68C-B722-5643-A353-345F8AB3AB42}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/tableau de suivi.xlsx
+++ b/tableau de suivi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samibahij/Documents/Ecole/MIAGE/Master/Mémoire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8B414F-807B-164A-9C9E-51A757D4A703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A565585-2E3C-C840-8FE0-BC9A61AAF3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" activeTab="1" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphes Erdős-Rényi" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="170">
   <si>
     <t>Expérience</t>
   </si>
@@ -553,10 +553,6 @@
 d'approximation sur Vertex Cover. Propose de nouveaux GNNs (CPNGNNs).</t>
   </si>
   <si>
-    <t>Propose un cadre pour la prise de décision sous incertitude
- basé sur des LLMs et maximise l'utilité espérée.</t>
-  </si>
-  <si>
     <t>Utilisation hybride des GNNs, règles de réduction et recherche locale 
 pour Minimum Weight Vertex Cover. Solutions proches de l'optimal.</t>
   </si>
@@ -601,9 +597,6 @@
   </si>
   <si>
     <t>TITLE-ABS-KEY("Learning steady-states of iterative algorithms over graphs")</t>
-  </si>
-  <si>
-    <t>TITLE-ABS-KEY("Learning from obstructions: An effective deep learning approach for minimum vertex cover")</t>
   </si>
   <si>
     <t>TITLE-ABS-KEY("Efficient Minimum Weight Vertex Cover Heuristics Using Graph Neural Networks")</t>
@@ -649,6 +642,20 @@
   </si>
   <si>
     <t>Frankl–Rödl</t>
+  </si>
+  <si>
+    <t>Mots clés</t>
+  </si>
+  <si>
+    <t>TITLE-ABS-KEY("Learning from obstructions: An effective deep learnin
+g approach for minimum vertex cover")</t>
+  </si>
+  <si>
+    <t>http://cedric.cnam.fr/~porumbed/graphs/</t>
+  </si>
+  <si>
+    <t>site pas trop mal de benchmarks, à voir 
+plus en détai</t>
   </si>
 </sst>
 </file>
@@ -804,14 +811,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1264,13 +1271,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
       <c r="G2" t="s">
         <v>100</v>
       </c>
@@ -1291,13 +1298,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
@@ -2180,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD885E0-0782-644D-B5BF-19AFE64F3FEB}">
-  <dimension ref="A2:M17"/>
+  <dimension ref="A2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2194,7 +2201,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="M2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2205,7 +2212,7 @@
         <v>102</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2216,7 +2223,7 @@
         <v>104</v>
       </c>
       <c r="M4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2227,7 +2234,7 @@
         <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2235,7 +2242,7 @@
         <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2246,7 +2253,7 @@
         <v>109</v>
       </c>
       <c r="M7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -2257,7 +2264,7 @@
         <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="34" x14ac:dyDescent="0.2">
@@ -2316,9 +2323,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2328,6 +2343,7 @@
     <hyperlink ref="B11" r:id="rId3" xr:uid="{ACAC9FDF-CD39-834C-81FD-4411452B12CA}"/>
     <hyperlink ref="B16" r:id="rId4" xr:uid="{8A89CCD7-B834-CC43-A1B2-3F49A4E8B811}"/>
     <hyperlink ref="B17" r:id="rId5" xr:uid="{7169DB99-7A06-2D41-BDB4-4916A5835682}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{D7B4BF34-EC2E-3C49-AD24-9D03950498D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2336,10 +2352,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB0364-37BC-424B-B8F3-4BE1CA99B045}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2352,13 +2368,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="N1" s="5" t="s">
         <v>119</v>
       </c>
@@ -2377,12 +2393,12 @@
         <v>133</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>137</v>
@@ -2391,15 +2407,15 @@
         <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>138</v>
@@ -2408,44 +2424,42 @@
         <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>139</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s">
         <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -2453,16 +2467,16 @@
         <v>129</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
         <v>130</v>
       </c>
       <c r="D7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E7" t="s">
-        <v>153</v>
+        <v>147</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="34" x14ac:dyDescent="0.2">
@@ -2470,36 +2484,41 @@
         <v>131</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" t="s">
         <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="A12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="9" t="s">
+        <v>166</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/tableau de suivi.xlsx
+++ b/tableau de suivi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samibahij/Documents/Ecole/MIAGE/Master/Mémoire/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A565585-2E3C-C840-8FE0-BC9A61AAF3A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F24818-C400-0B4E-8917-1A7C7F8B3BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16680" activeTab="2" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" activeTab="2" xr2:uid="{F03427EB-F9DF-B543-BB88-193E9BA7E3FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphes Erdős-Rényi" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -938,7 +938,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2354,8 +2354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FB0364-37BC-424B-B8F3-4BE1CA99B045}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="106" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
